--- a/assets/excel/주식_종목_리스트.xlsx
+++ b/assets/excel/주식_종목_리스트.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infomax\Google Drive\maeng-gun.github.io\_ipynb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maeng-gun\Google Drive\maeng-gun.github.io\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="10185"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="종목리스트" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -495,9 +496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -632,4 +631,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>